--- a/data/APO - Water quality.xlsx
+++ b/data/APO - Water quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD/Projekte/apo-sub-2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004DB243-B0C8-1F4F-82EA-F61FCF5AD74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C64E97E-8F3B-2343-9724-349CEE1C125C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="500" windowWidth="19740" windowHeight="16000" activeTab="1" xr2:uid="{C5E9C466-93C4-574F-B63C-9AC7A4C519C5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="33600" activeTab="1" xr2:uid="{C5E9C466-93C4-574F-B63C-9AC7A4C519C5}"/>
   </bookViews>
   <sheets>
     <sheet name="important Notes" sheetId="3" r:id="rId1"/>
@@ -1233,6 +1233,210 @@
         </r>
       </text>
     </comment>
+    <comment ref="I72" authorId="0" shapeId="0" xr:uid="{C65AD99E-77E2-6949-BE2D-37758557DB05}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anıl Tellbüscher:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>20</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>°</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>C</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I73" authorId="0" shapeId="0" xr:uid="{0870B2FB-0CF3-834B-8339-37EF8D773FF9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anıl Tellbüscher:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>20</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>°</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>C</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I74" authorId="0" shapeId="0" xr:uid="{99B551AA-F6A1-DF4E-B36C-C88BB194F1D9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anıl Tellbüscher:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>20</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>°</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>C</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I75" authorId="0" shapeId="0" xr:uid="{76B3FBC7-8F77-5649-9002-7C328607BD1E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Anıl Tellbüscher:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>20</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>°</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>C</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1281,7 +1485,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="314">
   <si>
     <t>Macronutrients</t>
   </si>
@@ -2003,39 +2207,6 @@
     <t>52.24234532164097, 20.879554554463954</t>
   </si>
   <si>
-    <t>Ekaterinburg</t>
-  </si>
-  <si>
-    <t>Izevsk</t>
-  </si>
-  <si>
-    <t>Kursk</t>
-  </si>
-  <si>
-    <t>Saratov</t>
-  </si>
-  <si>
-    <t>Tver</t>
-  </si>
-  <si>
-    <t>Kizilyurt</t>
-  </si>
-  <si>
-    <t>42.94704255354566, 47.49575780333197</t>
-  </si>
-  <si>
-    <t>56.42026037952627, 60.45245223876442</t>
-  </si>
-  <si>
-    <t>56.82971296763911, 53.18518984954706</t>
-  </si>
-  <si>
-    <t>51.52730018993439, 46.00632840802138</t>
-  </si>
-  <si>
-    <t>56.84962048091086, 35.816676201411234</t>
-  </si>
-  <si>
     <t>Rom</t>
   </si>
   <si>
@@ -2058,6 +2229,204 @@
   </si>
   <si>
     <t>Red Pla de la Vallonga</t>
+  </si>
+  <si>
+    <t>Thames Water</t>
+  </si>
+  <si>
+    <t>Hackney South</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>41.8850961189653, 12.490948072977703</t>
+  </si>
+  <si>
+    <t>51.54055957717594, -0.059957114752754476</t>
+  </si>
+  <si>
+    <t>48.97442967920739, 14.477672101013495</t>
+  </si>
+  <si>
+    <t>Red de distribucion consorcio de la Zona Franca de Cádiz</t>
+  </si>
+  <si>
+    <t>Cádiz</t>
+  </si>
+  <si>
+    <t>36.52079928609771, -6.279892382895258</t>
+  </si>
+  <si>
+    <t>CYII Red de Madrid Distrito Hortaleza</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>40.4694160940912, -3.6422632239563857</t>
+  </si>
+  <si>
+    <t>Red La Telva</t>
+  </si>
+  <si>
+    <t>A Coruña</t>
+  </si>
+  <si>
+    <t>Mairie de Boigneville</t>
+  </si>
+  <si>
+    <t>Boigneville</t>
+  </si>
+  <si>
+    <t>Societe Agur</t>
+  </si>
+  <si>
+    <t>Ainhoa</t>
+  </si>
+  <si>
+    <t>Saint Pee Sur Nivelle</t>
+  </si>
+  <si>
+    <t>43.30258544198362, -8.420370320018138</t>
+  </si>
+  <si>
+    <t>48.334672629273456, 2.3712923788498577</t>
+  </si>
+  <si>
+    <t>43.35435197539249, -1.5591803908200028</t>
+  </si>
+  <si>
+    <t>Veolia 69 Nord</t>
+  </si>
+  <si>
+    <t>Region de Tarare Principale</t>
+  </si>
+  <si>
+    <t>Legny</t>
+  </si>
+  <si>
+    <t>45.90877368998236, 4.583649741437941</t>
+  </si>
+  <si>
+    <t>Mairie d'Arlempdes</t>
+  </si>
+  <si>
+    <t>Arlempdes</t>
+  </si>
+  <si>
+    <t>44.86366633215545, 3.900562074975574</t>
+  </si>
+  <si>
+    <t>Basler Stadtwerke</t>
+  </si>
+  <si>
+    <t>Basel</t>
+  </si>
+  <si>
+    <t>47.55934179406963, 7.588223629962868</t>
+  </si>
+  <si>
+    <t>Stadtwerke Saarlouis</t>
+  </si>
+  <si>
+    <t>Saarlouis</t>
+  </si>
+  <si>
+    <t>49.31329151176641, 6.751633277221491</t>
+  </si>
+  <si>
+    <t>Wasserwerk Ost</t>
+  </si>
+  <si>
+    <t>Wasserwerk West</t>
+  </si>
+  <si>
+    <t>Kassel</t>
+  </si>
+  <si>
+    <t>Kasselwasser</t>
+  </si>
+  <si>
+    <t>Kratzenberg</t>
+  </si>
+  <si>
+    <t>Osterberg</t>
+  </si>
+  <si>
+    <t>Bergfreiheit</t>
+  </si>
+  <si>
+    <t>Blauer See</t>
+  </si>
+  <si>
+    <t>Hasenhecke</t>
+  </si>
+  <si>
+    <t>Lindenberg</t>
+  </si>
+  <si>
+    <t>Lindenkopf</t>
+  </si>
+  <si>
+    <t>Jungfernkopf</t>
+  </si>
+  <si>
+    <t>Dönche</t>
+  </si>
+  <si>
+    <t>Bergstraße</t>
+  </si>
+  <si>
+    <t>Hunrod</t>
+  </si>
+  <si>
+    <t>Kuhberg/Krähhahn</t>
+  </si>
+  <si>
+    <t>Hessenschanze</t>
+  </si>
+  <si>
+    <t>Breiter Stein</t>
+  </si>
+  <si>
+    <t>51.31305481801966, 9.479668788890208</t>
+  </si>
+  <si>
+    <t>Zweckverband Wasserversorgung Stadt und Kreis Offfenbach</t>
+  </si>
+  <si>
+    <t>Offenbach</t>
+  </si>
+  <si>
+    <t>50.09576416970179, 8.776379205626542</t>
+  </si>
+  <si>
+    <t>Innsbruck</t>
+  </si>
+  <si>
+    <t>Hochbehälter Mühlau</t>
+  </si>
+  <si>
+    <t>47.28969146794782, 11.412614455024528</t>
+  </si>
+  <si>
+    <t>iKB</t>
+  </si>
+  <si>
+    <t>Versorgungsgebiet 1</t>
+  </si>
+  <si>
+    <t>Marktreditz</t>
+  </si>
+  <si>
+    <t>50.002615379351305, 12.049667754508226</t>
+  </si>
+  <si>
+    <t>MAK</t>
   </si>
 </sst>
 </file>
@@ -2439,8 +2808,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{97C8753E-B248-414E-8E09-FCA8EAD9E6A1}" name="Tabelle1" displayName="Tabelle1" ref="A2:AU77" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A2:AU77" xr:uid="{97C8753E-B248-414E-8E09-FCA8EAD9E6A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{97C8753E-B248-414E-8E09-FCA8EAD9E6A1}" name="Tabelle1" displayName="Tabelle1" ref="A2:AU99" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A2:AU99" xr:uid="{97C8753E-B248-414E-8E09-FCA8EAD9E6A1}"/>
   <tableColumns count="47">
     <tableColumn id="1" xr3:uid="{C558097B-EFFD-1E4D-9DAB-5449764A12C3}" name="Reference_ID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{2354C398-FE28-B547-9546-B8AAC399AADA}" name="Location" dataDxfId="5"/>
@@ -2822,13 +3191,13 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:BB77"/>
+  <dimension ref="A1:BB99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5173,6 +5542,9 @@
       <c r="E22" s="5" t="s">
         <v>70</v>
       </c>
+      <c r="F22" s="5" t="s">
+        <v>254</v>
+      </c>
       <c r="G22" s="3" t="s">
         <v>42</v>
       </c>
@@ -8883,7 +9255,7 @@
         <v>27</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="J56">
         <v>0.01</v>
@@ -10078,7 +10450,7 @@
     </row>
     <row r="68" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B68" s="5" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>235</v>
@@ -10185,7 +10557,7 @@
     </row>
     <row r="69" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B69" s="5" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>237</v>
@@ -10232,7 +10604,7 @@
     </row>
     <row r="70" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B70" s="5" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>237</v>
@@ -10296,187 +10668,3033 @@
       </c>
     </row>
     <row r="71" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>244</v>
+      </c>
       <c r="C71" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>246</v>
+        <v>252</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H71">
+        <v>7.5</v>
+      </c>
+      <c r="I71">
+        <v>574</v>
+      </c>
+      <c r="J71">
+        <v>0.03</v>
+      </c>
+      <c r="K71" t="s">
+        <v>92</v>
+      </c>
+      <c r="L71">
+        <v>0.01</v>
+      </c>
+      <c r="M71" t="s">
+        <v>92</v>
+      </c>
+      <c r="N71">
+        <v>3.01</v>
+      </c>
+      <c r="O71" t="s">
+        <v>93</v>
+      </c>
+      <c r="P71">
+        <v>0.05</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>92</v>
+      </c>
+      <c r="R71">
+        <v>0.97</v>
+      </c>
+      <c r="S71" t="s">
+        <v>93</v>
+      </c>
+      <c r="T71">
+        <v>105</v>
+      </c>
+      <c r="U71" t="s">
+        <v>93</v>
+      </c>
+      <c r="V71">
+        <v>18.7</v>
+      </c>
+      <c r="W71" t="s">
+        <v>93</v>
+      </c>
+      <c r="X71">
+        <v>16.5</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z71" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD71">
+        <v>2E-3</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF71" s="16">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH71">
+        <v>0.02</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL71" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN71">
+        <v>4</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP71">
+        <v>6.5</v>
+      </c>
+      <c r="AQ71" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR71" s="16">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="AS71" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT71">
+        <v>0.45</v>
+      </c>
+      <c r="AU71" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>249</v>
+      </c>
       <c r="C72" s="5" t="s">
-        <v>240</v>
+        <v>250</v>
+      </c>
+      <c r="D72" s="5">
+        <v>2022</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>247</v>
+        <v>253</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H72">
+        <v>7.74</v>
+      </c>
+      <c r="I72">
+        <v>627</v>
+      </c>
+      <c r="J72">
+        <v>0.18</v>
+      </c>
+      <c r="K72" t="s">
+        <v>93</v>
+      </c>
+      <c r="L72">
+        <v>4.7E-2</v>
+      </c>
+      <c r="M72" t="s">
+        <v>93</v>
+      </c>
+      <c r="N72">
+        <v>29.4</v>
+      </c>
+      <c r="O72" t="s">
+        <v>93</v>
+      </c>
+      <c r="V72">
+        <v>6.5</v>
+      </c>
+      <c r="W72" t="s">
+        <v>93</v>
+      </c>
+      <c r="X72">
+        <v>58.1</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z72" s="16">
+        <v>4.3E-3</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD72">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF72" s="16">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH72">
+        <v>0.06</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL72" s="16">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN72">
+        <v>36.4</v>
+      </c>
+      <c r="AO72" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP72">
+        <v>51.5</v>
+      </c>
+      <c r="AQ72" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR72" s="16">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="AS72" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT72">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AU72" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B73" s="5" t="s">
+        <v>255</v>
+      </c>
       <c r="C73" s="5" t="s">
-        <v>241</v>
+        <v>256</v>
+      </c>
+      <c r="D73" s="5">
+        <v>2023</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>248</v>
+        <v>257</v>
+      </c>
+      <c r="H73">
+        <v>7.7</v>
+      </c>
+      <c r="I73">
+        <v>430</v>
+      </c>
+      <c r="J73">
+        <v>0.15</v>
+      </c>
+      <c r="K73" t="s">
+        <v>93</v>
+      </c>
+      <c r="L73">
+        <v>0.02</v>
+      </c>
+      <c r="M73" t="s">
+        <v>93</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73" t="s">
+        <v>93</v>
+      </c>
+      <c r="T73">
+        <v>55</v>
+      </c>
+      <c r="U73" t="s">
+        <v>93</v>
+      </c>
+      <c r="V73">
+        <v>10</v>
+      </c>
+      <c r="W73" t="s">
+        <v>93</v>
+      </c>
+      <c r="X73">
+        <v>61</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z73" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD73">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF73" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH73">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL73" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN73">
+        <v>21</v>
+      </c>
+      <c r="AO73" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR73" s="16">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AS73" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B74" s="5" t="s">
+        <v>258</v>
+      </c>
       <c r="C74" s="5" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>232</v>
+        <v>121</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="H74">
+        <v>7.9</v>
+      </c>
+      <c r="I74">
+        <v>51</v>
+      </c>
+      <c r="J74">
+        <v>0.37</v>
+      </c>
+      <c r="K74" t="s">
+        <v>93</v>
+      </c>
+      <c r="L74">
+        <v>0.01</v>
+      </c>
+      <c r="M74" t="s">
+        <v>92</v>
+      </c>
+      <c r="N74">
+        <v>0.1</v>
+      </c>
+      <c r="O74" t="s">
+        <v>92</v>
+      </c>
+      <c r="X74">
+        <v>12</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z74" s="16">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD74">
+        <v>1E-3</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH74">
+        <v>0.01</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL74" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN74">
+        <v>10</v>
+      </c>
+      <c r="AO74" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR74" s="16">
+        <v>0.121</v>
+      </c>
+      <c r="AS74" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT74">
+        <v>2</v>
+      </c>
+      <c r="AU74" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="B75" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="C75" s="5" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>249</v>
+        <v>268</v>
+      </c>
+      <c r="H75">
+        <v>7.3</v>
+      </c>
+      <c r="I75">
+        <v>154</v>
+      </c>
+      <c r="J75">
+        <v>0.05</v>
+      </c>
+      <c r="K75" t="s">
+        <v>93</v>
+      </c>
+      <c r="N75">
+        <v>11</v>
+      </c>
+      <c r="O75" t="s">
+        <v>93</v>
+      </c>
+      <c r="X75">
+        <v>14</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z75">
+        <v>0.01</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD75">
+        <v>1E-3</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF75" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH75">
+        <v>0.5</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL75" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN75">
+        <v>15</v>
+      </c>
+      <c r="AO75" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR75" s="16">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="AS75" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT75">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AU75" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="C76" s="5" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>232</v>
+        <v>117</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>250</v>
+        <v>269</v>
+      </c>
+      <c r="H76">
+        <v>7.57</v>
+      </c>
+      <c r="I76">
+        <v>490</v>
+      </c>
+      <c r="J76">
+        <v>0.05</v>
+      </c>
+      <c r="K76" t="s">
+        <v>92</v>
+      </c>
+      <c r="L76">
+        <v>0.02</v>
+      </c>
+      <c r="M76" t="s">
+        <v>92</v>
+      </c>
+      <c r="N76">
+        <v>33</v>
+      </c>
+      <c r="O76" t="s">
+        <v>93</v>
+      </c>
+      <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76" t="s">
+        <v>93</v>
+      </c>
+      <c r="T76">
+        <v>86.6</v>
+      </c>
+      <c r="U76" t="s">
+        <v>93</v>
+      </c>
+      <c r="V76">
+        <v>3.9</v>
+      </c>
+      <c r="W76" t="s">
+        <v>93</v>
+      </c>
+      <c r="X76">
+        <v>7.3</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z76" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF76" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH76">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN76">
+        <v>6</v>
+      </c>
+      <c r="AO76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP76">
+        <v>16</v>
+      </c>
+      <c r="AQ76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR76" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="AS76" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT76">
+        <v>0.5</v>
+      </c>
+      <c r="AU76" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>252</v>
+        <v>117</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>270</v>
       </c>
       <c r="H77">
-        <v>7.5</v>
+        <v>7.95</v>
       </c>
       <c r="I77">
-        <v>574</v>
+        <v>249</v>
       </c>
       <c r="J77">
+        <v>0.05</v>
+      </c>
+      <c r="K77" t="s">
+        <v>92</v>
+      </c>
+      <c r="L77">
+        <v>0.02</v>
+      </c>
+      <c r="M77" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD77">
+        <v>5.1599999999999997E-3</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR77" s="16">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="AS77" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H78">
+        <v>7.6</v>
+      </c>
+      <c r="I78">
+        <v>545</v>
+      </c>
+      <c r="J78">
+        <v>0.05</v>
+      </c>
+      <c r="K78" t="s">
+        <v>92</v>
+      </c>
+      <c r="L78">
+        <v>0.02</v>
+      </c>
+      <c r="M78" t="s">
+        <v>92</v>
+      </c>
+      <c r="N78">
+        <v>12</v>
+      </c>
+      <c r="O78" t="s">
+        <v>93</v>
+      </c>
+      <c r="T78">
+        <v>87.8</v>
+      </c>
+      <c r="U78" t="s">
+        <v>93</v>
+      </c>
+      <c r="V78">
+        <v>6.2</v>
+      </c>
+      <c r="W78" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z78" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF78" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR78" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="AS78" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H79">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I79">
+        <v>161</v>
+      </c>
+      <c r="J79">
+        <v>0.05</v>
+      </c>
+      <c r="K79" t="s">
+        <v>92</v>
+      </c>
+      <c r="L79">
+        <v>0.01</v>
+      </c>
+      <c r="M79" t="s">
+        <v>92</v>
+      </c>
+      <c r="N79">
+        <v>0.3</v>
+      </c>
+      <c r="O79" t="s">
+        <v>93</v>
+      </c>
+      <c r="R79">
+        <v>3.5</v>
+      </c>
+      <c r="S79" t="s">
+        <v>93</v>
+      </c>
+      <c r="T79">
+        <v>11</v>
+      </c>
+      <c r="U79" t="s">
+        <v>93</v>
+      </c>
+      <c r="V79">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="W79" t="s">
+        <v>93</v>
+      </c>
+      <c r="X79">
+        <v>3.5</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z79" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN79">
+        <v>7.4</v>
+      </c>
+      <c r="AO79" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR79" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="AS79" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="H80">
+        <v>7.8</v>
+      </c>
+      <c r="R80">
+        <v>1.9</v>
+      </c>
+      <c r="S80" t="s">
+        <v>93</v>
+      </c>
+      <c r="T80">
+        <v>55.3</v>
+      </c>
+      <c r="U80" t="s">
+        <v>93</v>
+      </c>
+      <c r="V80">
+        <v>7.4</v>
+      </c>
+      <c r="W80" t="s">
+        <v>93</v>
+      </c>
+      <c r="X80">
+        <v>28</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP80">
+        <v>16.7</v>
+      </c>
+      <c r="AQ80" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR80">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS80" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="H81">
+        <v>7.91</v>
+      </c>
+      <c r="I81">
+        <v>378</v>
+      </c>
+      <c r="L81">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M81" t="s">
+        <v>92</v>
+      </c>
+      <c r="N81">
+        <v>36.5</v>
+      </c>
+      <c r="O81" t="s">
+        <v>93</v>
+      </c>
+      <c r="R81">
+        <v>5.3</v>
+      </c>
+      <c r="S81" t="s">
+        <v>93</v>
+      </c>
+      <c r="T81">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="U81" t="s">
+        <v>93</v>
+      </c>
+      <c r="V81">
+        <v>15.2</v>
+      </c>
+      <c r="W81" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z81">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN81">
+        <v>17</v>
+      </c>
+      <c r="AO81" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP81">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="AQ81" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR81">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="H82">
+        <v>7.77</v>
+      </c>
+      <c r="I82">
+        <v>426</v>
+      </c>
+      <c r="L82">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M82" t="s">
+        <v>92</v>
+      </c>
+      <c r="N82">
+        <v>31.5</v>
+      </c>
+      <c r="O82" t="s">
+        <v>93</v>
+      </c>
+      <c r="R82">
+        <v>3.7</v>
+      </c>
+      <c r="S82" t="s">
+        <v>93</v>
+      </c>
+      <c r="T82">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="U82" t="s">
+        <v>93</v>
+      </c>
+      <c r="V82">
+        <v>14.1</v>
+      </c>
+      <c r="W82" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z82">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN82">
+        <v>7</v>
+      </c>
+      <c r="AO82" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP82">
+        <v>17.2</v>
+      </c>
+      <c r="AQ82" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR82">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS82" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H83">
+        <v>7.76</v>
+      </c>
+      <c r="I83">
+        <v>364</v>
+      </c>
+      <c r="J83">
+        <v>0.01</v>
+      </c>
+      <c r="K83" t="s">
+        <v>92</v>
+      </c>
+      <c r="L83">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M83" t="s">
+        <v>92</v>
+      </c>
+      <c r="N83">
+        <v>11.8</v>
+      </c>
+      <c r="O83" t="s">
+        <v>93</v>
+      </c>
+      <c r="R83">
+        <v>2.66</v>
+      </c>
+      <c r="S83" t="s">
+        <v>93</v>
+      </c>
+      <c r="T83">
+        <v>33.9</v>
+      </c>
+      <c r="U83" t="s">
+        <v>93</v>
+      </c>
+      <c r="V83">
+        <v>8.34</v>
+      </c>
+      <c r="W83" t="s">
+        <v>93</v>
+      </c>
+      <c r="X83">
+        <v>37.4</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z83">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD83">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF83">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH83">
+        <v>0.05</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL83">
+        <v>2E-3</v>
+      </c>
+      <c r="AM83" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN83">
+        <v>22.77</v>
+      </c>
+      <c r="AO83" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP83">
+        <v>40.6</v>
+      </c>
+      <c r="AQ83" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR83">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="AS83" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT83">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AU83" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H84">
+        <v>7.87</v>
+      </c>
+      <c r="I84">
+        <v>552</v>
+      </c>
+      <c r="J84">
+        <v>0.1</v>
+      </c>
+      <c r="K84" t="s">
+        <v>92</v>
+      </c>
+      <c r="L84">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M84" t="s">
+        <v>92</v>
+      </c>
+      <c r="N84">
+        <v>17.8</v>
+      </c>
+      <c r="O84" t="s">
+        <v>93</v>
+      </c>
+      <c r="R84">
+        <v>2.44</v>
+      </c>
+      <c r="S84" t="s">
+        <v>93</v>
+      </c>
+      <c r="T84">
+        <v>56.53</v>
+      </c>
+      <c r="U84" t="s">
+        <v>93</v>
+      </c>
+      <c r="V84">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="W84" t="s">
+        <v>93</v>
+      </c>
+      <c r="X84">
+        <v>46.9</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z84">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD84">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF84">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH84">
+        <v>0.05</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL84">
+        <v>2E-3</v>
+      </c>
+      <c r="AM84" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN84">
+        <v>13.86</v>
+      </c>
+      <c r="AO84" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP84">
+        <v>32.6</v>
+      </c>
+      <c r="AQ84" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR84">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="AS84" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT84">
+        <v>0.4</v>
+      </c>
+      <c r="AU84" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H85">
+        <v>7.88</v>
+      </c>
+      <c r="I85">
+        <v>570</v>
+      </c>
+      <c r="J85">
+        <v>0.08</v>
+      </c>
+      <c r="K85" t="s">
+        <v>92</v>
+      </c>
+      <c r="L85">
+        <v>0.04</v>
+      </c>
+      <c r="M85" t="s">
+        <v>92</v>
+      </c>
+      <c r="N85">
+        <v>19</v>
+      </c>
+      <c r="O85" t="s">
+        <v>93</v>
+      </c>
+      <c r="R85">
+        <v>2.4</v>
+      </c>
+      <c r="S85" t="s">
+        <v>93</v>
+      </c>
+      <c r="T85">
+        <v>74.94</v>
+      </c>
+      <c r="U85" t="s">
+        <v>93</v>
+      </c>
+      <c r="V85">
+        <v>18.12</v>
+      </c>
+      <c r="W85" t="s">
+        <v>93</v>
+      </c>
+      <c r="X85">
+        <v>44.6</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z85">
+        <v>0.01</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD85">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF85">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH85">
+        <v>0.05</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL85">
+        <v>2E-3</v>
+      </c>
+      <c r="AM85" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN85">
+        <v>13.72</v>
+      </c>
+      <c r="AO85" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP85">
+        <v>32.9</v>
+      </c>
+      <c r="AQ85" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR85">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="AS85" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT85">
+        <v>0.2</v>
+      </c>
+      <c r="AU85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H86">
+        <v>8</v>
+      </c>
+      <c r="I86">
+        <v>554</v>
+      </c>
+      <c r="J86">
+        <v>0.08</v>
+      </c>
+      <c r="K86" t="s">
+        <v>92</v>
+      </c>
+      <c r="L86">
+        <v>0.04</v>
+      </c>
+      <c r="M86" t="s">
+        <v>92</v>
+      </c>
+      <c r="N86">
+        <v>18.2</v>
+      </c>
+      <c r="O86" t="s">
+        <v>93</v>
+      </c>
+      <c r="R86">
+        <v>2.39</v>
+      </c>
+      <c r="S86" t="s">
+        <v>93</v>
+      </c>
+      <c r="T86">
+        <v>66.010000000000005</v>
+      </c>
+      <c r="U86" t="s">
+        <v>93</v>
+      </c>
+      <c r="V86">
+        <v>17.93</v>
+      </c>
+      <c r="W86" t="s">
+        <v>93</v>
+      </c>
+      <c r="X86">
+        <v>45.5</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z86">
+        <v>0.01</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD86">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="AE86" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF86">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AG86" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH86">
+        <v>0.05</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL86">
+        <v>2E-3</v>
+      </c>
+      <c r="AM86" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN86">
+        <v>14.08</v>
+      </c>
+      <c r="AO86" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP86">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="AQ86" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR86">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="AS86" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT86">
+        <v>0.2</v>
+      </c>
+      <c r="AU86" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H87">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="I87">
+        <v>557</v>
+      </c>
+      <c r="J87">
+        <v>0.08</v>
+      </c>
+      <c r="K87" t="s">
+        <v>92</v>
+      </c>
+      <c r="L87">
+        <v>0.04</v>
+      </c>
+      <c r="M87" t="s">
+        <v>92</v>
+      </c>
+      <c r="N87">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="O87" t="s">
+        <v>93</v>
+      </c>
+      <c r="R87">
+        <v>2.44</v>
+      </c>
+      <c r="S87" t="s">
+        <v>93</v>
+      </c>
+      <c r="T87">
+        <v>47.07</v>
+      </c>
+      <c r="U87" t="s">
+        <v>93</v>
+      </c>
+      <c r="V87">
+        <v>17.84</v>
+      </c>
+      <c r="W87" t="s">
+        <v>93</v>
+      </c>
+      <c r="X87">
+        <v>45.6</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z87">
+        <v>0.01</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD87">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="AE87" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF87">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AG87" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH87">
+        <v>0.05</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL87">
+        <v>2E-3</v>
+      </c>
+      <c r="AM87" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN87">
+        <v>14.5</v>
+      </c>
+      <c r="AO87" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP87">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="AQ87" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR87">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="AS87" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT87">
+        <v>0.3</v>
+      </c>
+      <c r="AU87" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H88">
+        <v>7.97</v>
+      </c>
+      <c r="I88">
+        <v>465</v>
+      </c>
+      <c r="J88">
+        <v>0.1</v>
+      </c>
+      <c r="K88" t="s">
+        <v>92</v>
+      </c>
+      <c r="L88">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M88" t="s">
+        <v>92</v>
+      </c>
+      <c r="N88">
+        <v>13</v>
+      </c>
+      <c r="O88" t="s">
+        <v>93</v>
+      </c>
+      <c r="R88">
+        <v>2.77</v>
+      </c>
+      <c r="S88" t="s">
+        <v>93</v>
+      </c>
+      <c r="T88">
+        <v>63.71</v>
+      </c>
+      <c r="U88" t="s">
+        <v>93</v>
+      </c>
+      <c r="V88">
+        <v>12.17</v>
+      </c>
+      <c r="W88" t="s">
+        <v>93</v>
+      </c>
+      <c r="X88">
+        <v>31.5</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z88">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD88">
+        <v>6.0999999999999997E-4</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF88">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AG88" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH88">
+        <v>0.05</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL88">
+        <v>2E-3</v>
+      </c>
+      <c r="AM88" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN88">
+        <v>13.74</v>
+      </c>
+      <c r="AO88" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP88">
+        <v>25</v>
+      </c>
+      <c r="AQ88" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR88">
+        <v>1E-3</v>
+      </c>
+      <c r="AS88" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT88">
+        <v>0.4</v>
+      </c>
+      <c r="AU88" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H89">
+        <v>8.02</v>
+      </c>
+      <c r="I89">
+        <v>463</v>
+      </c>
+      <c r="J89">
+        <v>0.06</v>
+      </c>
+      <c r="K89" t="s">
+        <v>92</v>
+      </c>
+      <c r="L89">
+        <v>0.04</v>
+      </c>
+      <c r="M89" t="s">
+        <v>92</v>
+      </c>
+      <c r="N89">
+        <v>14.63</v>
+      </c>
+      <c r="O89" t="s">
+        <v>93</v>
+      </c>
+      <c r="R89">
+        <v>2.73</v>
+      </c>
+      <c r="S89" t="s">
+        <v>93</v>
+      </c>
+      <c r="T89">
+        <v>71.25</v>
+      </c>
+      <c r="U89" t="s">
+        <v>93</v>
+      </c>
+      <c r="V89">
+        <v>12.13</v>
+      </c>
+      <c r="W89" t="s">
+        <v>93</v>
+      </c>
+      <c r="X89">
+        <v>33.47</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z89">
+        <v>0.01</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD89">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF89">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AG89" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH89">
+        <v>0.01</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL89">
+        <v>2E-3</v>
+      </c>
+      <c r="AM89" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN89">
+        <v>13.59</v>
+      </c>
+      <c r="AO89" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP89">
+        <v>25.16</v>
+      </c>
+      <c r="AQ89" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR89">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AS89" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT89">
+        <v>0.4</v>
+      </c>
+      <c r="AU89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H90">
+        <v>7.93</v>
+      </c>
+      <c r="I90">
+        <v>386</v>
+      </c>
+      <c r="J90">
+        <v>0.08</v>
+      </c>
+      <c r="K90" t="s">
+        <v>92</v>
+      </c>
+      <c r="L90">
+        <v>0.04</v>
+      </c>
+      <c r="M90" t="s">
+        <v>92</v>
+      </c>
+      <c r="N90">
+        <v>15.6</v>
+      </c>
+      <c r="O90" t="s">
+        <v>93</v>
+      </c>
+      <c r="R90">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="S90" t="s">
+        <v>93</v>
+      </c>
+      <c r="T90">
+        <v>63.81</v>
+      </c>
+      <c r="U90" t="s">
+        <v>93</v>
+      </c>
+      <c r="V90">
+        <v>14.18</v>
+      </c>
+      <c r="W90" t="s">
+        <v>93</v>
+      </c>
+      <c r="X90">
+        <v>38.1</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z90">
+        <v>0.01</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD90">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="AE90" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF90">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AG90" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH90">
+        <v>0.05</v>
+      </c>
+      <c r="AI90" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL90">
+        <v>2E-3</v>
+      </c>
+      <c r="AM90" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN90">
+        <v>14.04</v>
+      </c>
+      <c r="AO90" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP90">
+        <v>28.6</v>
+      </c>
+      <c r="AQ90" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR90">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="AS90" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT90">
+        <v>0.9</v>
+      </c>
+      <c r="AU90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H91">
+        <v>7.88</v>
+      </c>
+      <c r="I91">
+        <v>443</v>
+      </c>
+      <c r="J91">
+        <v>0.01</v>
+      </c>
+      <c r="K91" t="s">
+        <v>92</v>
+      </c>
+      <c r="L91">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M91" t="s">
+        <v>92</v>
+      </c>
+      <c r="N91">
+        <v>6.48</v>
+      </c>
+      <c r="O91" t="s">
+        <v>93</v>
+      </c>
+      <c r="R91">
+        <v>3.46</v>
+      </c>
+      <c r="S91" t="s">
+        <v>93</v>
+      </c>
+      <c r="T91">
+        <v>71.94</v>
+      </c>
+      <c r="U91" t="s">
+        <v>93</v>
+      </c>
+      <c r="V91">
+        <v>17.93</v>
+      </c>
+      <c r="W91" t="s">
+        <v>93</v>
+      </c>
+      <c r="X91">
+        <v>56.9</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z91">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD91">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF91">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="AG91" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH91">
+        <v>0.05</v>
+      </c>
+      <c r="AI91" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL91">
+        <v>2E-3</v>
+      </c>
+      <c r="AM91" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN91">
+        <v>20.88</v>
+      </c>
+      <c r="AO91" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP91">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AQ91" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR91">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="AS91" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT91">
+        <v>0.8</v>
+      </c>
+      <c r="AU91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H92">
+        <v>7.61</v>
+      </c>
+      <c r="I92">
+        <v>625</v>
+      </c>
+      <c r="J92">
+        <v>0.08</v>
+      </c>
+      <c r="K92" t="s">
+        <v>92</v>
+      </c>
+      <c r="L92">
+        <v>0.04</v>
+      </c>
+      <c r="M92" t="s">
+        <v>92</v>
+      </c>
+      <c r="N92">
+        <v>6.05</v>
+      </c>
+      <c r="O92" t="s">
+        <v>93</v>
+      </c>
+      <c r="R92">
+        <v>3.11</v>
+      </c>
+      <c r="S92" t="s">
+        <v>93</v>
+      </c>
+      <c r="T92">
+        <v>64.88</v>
+      </c>
+      <c r="U92" t="s">
+        <v>93</v>
+      </c>
+      <c r="V92">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="W92" t="s">
+        <v>93</v>
+      </c>
+      <c r="X92">
+        <v>53.2</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z92">
+        <v>0.01</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD92">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="AE92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF92">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="AG92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH92">
+        <v>0.05</v>
+      </c>
+      <c r="AI92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL92">
+        <v>2E-3</v>
+      </c>
+      <c r="AM92" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN92">
+        <v>18.16</v>
+      </c>
+      <c r="AO92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP92">
+        <v>29.2</v>
+      </c>
+      <c r="AQ92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR92">
+        <v>3.3E-3</v>
+      </c>
+      <c r="AS92" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT92">
+        <v>0.5</v>
+      </c>
+      <c r="AU92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H93">
+        <v>7.8</v>
+      </c>
+      <c r="I93">
+        <v>434</v>
+      </c>
+      <c r="J93">
+        <v>0.08</v>
+      </c>
+      <c r="K93" t="s">
+        <v>92</v>
+      </c>
+      <c r="L93">
+        <v>0.04</v>
+      </c>
+      <c r="M93" t="s">
+        <v>92</v>
+      </c>
+      <c r="N93">
+        <v>7.28</v>
+      </c>
+      <c r="O93" t="s">
+        <v>93</v>
+      </c>
+      <c r="R93">
+        <v>3.33</v>
+      </c>
+      <c r="S93" t="s">
+        <v>93</v>
+      </c>
+      <c r="T93">
+        <v>72</v>
+      </c>
+      <c r="U93" t="s">
+        <v>93</v>
+      </c>
+      <c r="V93">
+        <v>17.87</v>
+      </c>
+      <c r="W93" t="s">
+        <v>93</v>
+      </c>
+      <c r="X93">
+        <v>84.4</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z93">
+        <v>0.01</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD93">
+        <v>1E-3</v>
+      </c>
+      <c r="AE93" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF93">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="AG93" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH93">
+        <v>0.05</v>
+      </c>
+      <c r="AI93" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL93">
+        <v>2E-3</v>
+      </c>
+      <c r="AM93" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN93">
+        <v>15.69</v>
+      </c>
+      <c r="AO93" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP93">
+        <v>25.5</v>
+      </c>
+      <c r="AQ93" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR93">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AS93" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT93">
+        <v>0.2</v>
+      </c>
+      <c r="AU93" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H94">
+        <v>7.86</v>
+      </c>
+      <c r="I94">
+        <v>563</v>
+      </c>
+      <c r="J94">
+        <v>0.1</v>
+      </c>
+      <c r="K94" t="s">
+        <v>92</v>
+      </c>
+      <c r="L94">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M94" t="s">
+        <v>92</v>
+      </c>
+      <c r="N94">
+        <v>7.88</v>
+      </c>
+      <c r="O94" t="s">
+        <v>93</v>
+      </c>
+      <c r="R94">
+        <v>3.46</v>
+      </c>
+      <c r="S94" t="s">
+        <v>93</v>
+      </c>
+      <c r="T94">
+        <v>71.459999999999994</v>
+      </c>
+      <c r="U94" t="s">
+        <v>93</v>
+      </c>
+      <c r="V94">
+        <v>18.04</v>
+      </c>
+      <c r="W94" t="s">
+        <v>93</v>
+      </c>
+      <c r="X94">
+        <v>48.2</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z94">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD94">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF94">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AG94" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH94">
+        <v>0.05</v>
+      </c>
+      <c r="AI94" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL94">
+        <v>2E-3</v>
+      </c>
+      <c r="AM94" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN94">
+        <v>14.4</v>
+      </c>
+      <c r="AO94" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP94">
+        <v>23</v>
+      </c>
+      <c r="AQ94" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR94">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="AS94" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT94">
+        <v>0.8</v>
+      </c>
+      <c r="AU94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H95">
+        <v>7.87</v>
+      </c>
+      <c r="I95">
+        <v>565</v>
+      </c>
+      <c r="J95">
+        <v>0.1</v>
+      </c>
+      <c r="K95" t="s">
+        <v>92</v>
+      </c>
+      <c r="L95">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M95" t="s">
+        <v>92</v>
+      </c>
+      <c r="N95">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="O95" t="s">
+        <v>93</v>
+      </c>
+      <c r="R95">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="S95" t="s">
+        <v>93</v>
+      </c>
+      <c r="T95">
+        <v>55.96</v>
+      </c>
+      <c r="U95" t="s">
+        <v>93</v>
+      </c>
+      <c r="V95">
+        <v>17.7</v>
+      </c>
+      <c r="W95" t="s">
+        <v>93</v>
+      </c>
+      <c r="X95">
+        <v>27.6</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z95">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD95">
+        <v>1.9E-3</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF95">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH95">
+        <v>0.05</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL95">
+        <v>2E-3</v>
+      </c>
+      <c r="AM95" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN95">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="AO95" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP95">
+        <v>9.23</v>
+      </c>
+      <c r="AQ95" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR95">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="AS95" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT95">
+        <v>1.2</v>
+      </c>
+      <c r="AU95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H96">
+        <v>7.86</v>
+      </c>
+      <c r="I96">
+        <v>566</v>
+      </c>
+      <c r="J96">
+        <v>0.1</v>
+      </c>
+      <c r="K96" t="s">
+        <v>92</v>
+      </c>
+      <c r="L96">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M96" t="s">
+        <v>92</v>
+      </c>
+      <c r="N96">
+        <v>18.8</v>
+      </c>
+      <c r="O96" t="s">
+        <v>93</v>
+      </c>
+      <c r="R96">
+        <v>2.41</v>
+      </c>
+      <c r="S96" t="s">
+        <v>93</v>
+      </c>
+      <c r="T96">
+        <v>73.27</v>
+      </c>
+      <c r="U96" t="s">
+        <v>93</v>
+      </c>
+      <c r="V96">
+        <v>18.18</v>
+      </c>
+      <c r="W96" t="s">
+        <v>93</v>
+      </c>
+      <c r="X96">
+        <v>45.5</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z96">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD96">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF96">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="AG96" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH96">
+        <v>0.05</v>
+      </c>
+      <c r="AI96" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL96">
+        <v>2E-3</v>
+      </c>
+      <c r="AM96" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN96">
+        <v>14.41</v>
+      </c>
+      <c r="AO96" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP96">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="AQ96" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR96">
+        <v>1E-3</v>
+      </c>
+      <c r="AS96" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT96">
+        <v>0.8</v>
+      </c>
+      <c r="AU96" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H97">
+        <f>AVERAGE(7.83,8.23)</f>
+        <v>8.0300000000000011</v>
+      </c>
+      <c r="I97">
+        <f>AVERAGE(393,570)</f>
+        <v>481.5</v>
+      </c>
+      <c r="J97">
         <v>0.03</v>
       </c>
-      <c r="K77" t="s">
-        <v>92</v>
-      </c>
-      <c r="L77">
+      <c r="K97" t="s">
+        <v>92</v>
+      </c>
+      <c r="L97">
+        <v>0.03</v>
+      </c>
+      <c r="M97" t="s">
+        <v>92</v>
+      </c>
+      <c r="N97">
+        <f>AVERAGE(10,30)</f>
+        <v>20</v>
+      </c>
+      <c r="O97" t="s">
+        <v>93</v>
+      </c>
+      <c r="R97">
+        <f>AVERAGE(1.9,3.8)</f>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="S97" t="s">
+        <v>93</v>
+      </c>
+      <c r="T97">
+        <f>AVERAGE(50,64)</f>
+        <v>57</v>
+      </c>
+      <c r="U97" t="s">
+        <v>93</v>
+      </c>
+      <c r="V97">
+        <f>AVERAGE(9,14)</f>
+        <v>11.5</v>
+      </c>
+      <c r="W97" t="s">
+        <v>93</v>
+      </c>
+      <c r="X97">
+        <f>AVERAGE(49,77)</f>
+        <v>63</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z97">
         <v>0.01</v>
       </c>
-      <c r="M77" t="s">
-        <v>92</v>
-      </c>
-      <c r="N77">
-        <v>3.01</v>
-      </c>
-      <c r="O77" t="s">
-        <v>93</v>
-      </c>
-      <c r="P77">
-        <v>0.05</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>92</v>
-      </c>
-      <c r="R77">
-        <v>0.97</v>
-      </c>
-      <c r="S77" t="s">
-        <v>93</v>
-      </c>
-      <c r="T77">
-        <v>105</v>
-      </c>
-      <c r="U77" t="s">
-        <v>93</v>
-      </c>
-      <c r="V77">
-        <v>18.7</v>
-      </c>
-      <c r="W77" t="s">
-        <v>93</v>
-      </c>
-      <c r="X77">
-        <v>16.5</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z77" s="16">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="AA77" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD77">
+      <c r="AA97" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD97">
+        <f>AVERAGE(0.01,0.07)</f>
+        <v>0.04</v>
+      </c>
+      <c r="AE97" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF97">
+        <v>0.01</v>
+      </c>
+      <c r="AG97" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH97">
+        <f>AVERAGE(0.01,0.031)</f>
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="AI97" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL97">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AM97" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN97">
+        <f>AVERAGE(10,18)</f>
+        <v>14</v>
+      </c>
+      <c r="AO97" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP97">
+        <f>AVERAGE(36,41)</f>
+        <v>38.5</v>
+      </c>
+      <c r="AQ97" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR97">
+        <v>0.02</v>
+      </c>
+      <c r="AS97" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT97">
+        <f>AVERAGE(1.4,1.7)</f>
+        <v>1.5499999999999998</v>
+      </c>
+      <c r="AU97" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H98">
+        <v>8.02</v>
+      </c>
+      <c r="J98">
+        <v>0.1</v>
+      </c>
+      <c r="K98" t="s">
+        <v>92</v>
+      </c>
+      <c r="L98">
+        <v>0.01</v>
+      </c>
+      <c r="M98" t="s">
+        <v>92</v>
+      </c>
+      <c r="N98">
+        <v>1.81</v>
+      </c>
+      <c r="O98" t="s">
+        <v>93</v>
+      </c>
+      <c r="R98">
+        <v>0.1</v>
+      </c>
+      <c r="S98" t="s">
+        <v>92</v>
+      </c>
+      <c r="T98">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="U98" t="s">
+        <v>93</v>
+      </c>
+      <c r="V98">
+        <v>8.41</v>
+      </c>
+      <c r="W98" t="s">
+        <v>93</v>
+      </c>
+      <c r="X98">
+        <v>2.16</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z98">
+        <v>0.01</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF98">
+        <v>0.01</v>
+      </c>
+      <c r="AG98" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN98">
+        <v>0.1</v>
+      </c>
+      <c r="AO98" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP98">
+        <v>0.1</v>
+      </c>
+      <c r="AQ98" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT98">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AU98" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H99">
+        <v>7.68</v>
+      </c>
+      <c r="I99">
+        <v>310</v>
+      </c>
+      <c r="J99">
+        <v>0.01</v>
+      </c>
+      <c r="K99" t="s">
+        <v>92</v>
+      </c>
+      <c r="L99">
+        <v>0.01</v>
+      </c>
+      <c r="M99" t="s">
+        <v>92</v>
+      </c>
+      <c r="N99">
+        <v>9.4</v>
+      </c>
+      <c r="O99" t="s">
+        <v>93</v>
+      </c>
+      <c r="R99">
+        <v>0.7</v>
+      </c>
+      <c r="S99" t="s">
+        <v>93</v>
+      </c>
+      <c r="T99">
+        <v>55.3</v>
+      </c>
+      <c r="U99" t="s">
+        <v>93</v>
+      </c>
+      <c r="V99">
+        <v>2.7</v>
+      </c>
+      <c r="W99" t="s">
+        <v>93</v>
+      </c>
+      <c r="X99">
+        <v>6.5</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z99">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD99">
+        <v>0.04</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF99">
         <v>2E-3</v>
       </c>
-      <c r="AE77" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF77" s="16">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="AG77" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH77">
-        <v>0.02</v>
-      </c>
-      <c r="AI77" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL77" s="16">
+      <c r="AG99" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL99">
         <v>2E-3</v>
       </c>
-      <c r="AM77" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN77">
-        <v>4</v>
-      </c>
-      <c r="AO77" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP77">
-        <v>6.5</v>
-      </c>
-      <c r="AQ77" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR77" s="16">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="AS77" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT77">
-        <v>0.45</v>
-      </c>
-      <c r="AU77" t="s">
+      <c r="AM99" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN99">
+        <v>3</v>
+      </c>
+      <c r="AO99" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP99">
+        <v>8.4</v>
+      </c>
+      <c r="AQ99" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR99">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS99" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT99">
+        <v>0.2</v>
+      </c>
+      <c r="AU99" t="s">
         <v>93</v>
       </c>
     </row>

--- a/data/APO - Water quality.xlsx
+++ b/data/APO - Water quality.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD/Projekte/apo-sub-2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C64E97E-8F3B-2343-9724-349CEE1C125C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{974CE16C-828E-374F-858E-53C1F705814C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="33600" activeTab="1" xr2:uid="{C5E9C466-93C4-574F-B63C-9AC7A4C519C5}"/>
+    <workbookView xWindow="1260" yWindow="500" windowWidth="19740" windowHeight="33100" activeTab="1" xr2:uid="{C5E9C466-93C4-574F-B63C-9AC7A4C519C5}"/>
   </bookViews>
   <sheets>
     <sheet name="important Notes" sheetId="3" r:id="rId1"/>
@@ -1485,7 +1485,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="397">
   <si>
     <t>Macronutrients</t>
   </si>
@@ -2427,6 +2427,255 @@
   </si>
   <si>
     <t>MAK</t>
+  </si>
+  <si>
+    <t>Stadtwerke Düsseldorf</t>
+  </si>
+  <si>
+    <t>Düsseldorf</t>
+  </si>
+  <si>
+    <t>swa Trinkwaasser</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>48.37691953678279, 10.885124703686214</t>
+  </si>
+  <si>
+    <t>51.227462177725485, 6.774522887786429</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Wasserversorgung Liechtensteiner Unterland</t>
+  </si>
+  <si>
+    <t>Gamprin-Bendern</t>
+  </si>
+  <si>
+    <t>47.21220599170113, 9.508231723996175</t>
+  </si>
+  <si>
+    <t>WN05, 45 Mauren, Lachenstrasse 40</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>Mischwasser</t>
+  </si>
+  <si>
+    <t>Erfurt</t>
+  </si>
+  <si>
+    <t>50.96163874501972, 11.00019847649089</t>
+  </si>
+  <si>
+    <t>avacon</t>
+  </si>
+  <si>
+    <t>Lüneburg</t>
+  </si>
+  <si>
+    <t>53.24780050481698, 10.392485041796528</t>
+  </si>
+  <si>
+    <t>FWA</t>
+  </si>
+  <si>
+    <t>Frankfurt an der Oder</t>
+  </si>
+  <si>
+    <t>52.34824800786877, 14.45787844599074</t>
+  </si>
+  <si>
+    <t>Lausitzer Wasser</t>
+  </si>
+  <si>
+    <t>Fehrower Weg</t>
+  </si>
+  <si>
+    <t>Cottbus</t>
+  </si>
+  <si>
+    <t>51.78306291392819, 14.332748740843407</t>
+  </si>
+  <si>
+    <t>Zweckverband Wasserversorgung &amp; Abwasserbeseitigung Usedom</t>
+  </si>
+  <si>
+    <t>Wasserwerk Usedom</t>
+  </si>
+  <si>
+    <t>Usedom</t>
+  </si>
+  <si>
+    <t>53.93314229156935, 14.089066847581185</t>
+  </si>
+  <si>
+    <t>Hümmling Wasserverband</t>
+  </si>
+  <si>
+    <t>Wasserwerk Surwold</t>
+  </si>
+  <si>
+    <t>Surwold</t>
+  </si>
+  <si>
+    <t>53.00566461904555, 7.494061736114276</t>
+  </si>
+  <si>
+    <t>HB Berndorf</t>
+  </si>
+  <si>
+    <t>Verbandsgemeinde Gerolstein</t>
+  </si>
+  <si>
+    <t>Gerolstein</t>
+  </si>
+  <si>
+    <t>50.22081953012955, 6.633580506707629</t>
+  </si>
+  <si>
+    <t>STAWAG</t>
+  </si>
+  <si>
+    <t>Härtebereich 1</t>
+  </si>
+  <si>
+    <t>Aachen</t>
+  </si>
+  <si>
+    <t>50.799770983519316, 6.090636595164506</t>
+  </si>
+  <si>
+    <t>Stadtwerke Baden-Baden</t>
+  </si>
+  <si>
+    <t>Baden-Baden</t>
+  </si>
+  <si>
+    <t>48.789514973338584, 8.24093411253014</t>
+  </si>
+  <si>
+    <t>Grundwasser</t>
+  </si>
+  <si>
+    <t>Quellwasser</t>
+  </si>
+  <si>
+    <t>Kemptener Kommunalunternehmen</t>
+  </si>
+  <si>
+    <t>Mittel- und Niederzone</t>
+  </si>
+  <si>
+    <t>Kempten</t>
+  </si>
+  <si>
+    <t>47.72508426221937, 10.308332388766141</t>
+  </si>
+  <si>
+    <t>Salzburg AG</t>
+  </si>
+  <si>
+    <t>Behälter Mönchsberg</t>
+  </si>
+  <si>
+    <t>Salzburg</t>
+  </si>
+  <si>
+    <t>47.836883470180986, 13.062113178347834</t>
+  </si>
+  <si>
+    <t>Stadtwerke Klagenfurt AG</t>
+  </si>
+  <si>
+    <t>Pumpanlage Zwirnawald</t>
+  </si>
+  <si>
+    <t>Klagenfurt</t>
+  </si>
+  <si>
+    <t>46.6786095104281, 14.3292087136818</t>
+  </si>
+  <si>
+    <t>Stadtwerke Kufstein</t>
+  </si>
+  <si>
+    <t>Tiefbrunnen Fürhölzl</t>
+  </si>
+  <si>
+    <t>Kufstein</t>
+  </si>
+  <si>
+    <t>47.56132432685829, 12.131185933964833</t>
+  </si>
+  <si>
+    <t>Linz AG</t>
+  </si>
+  <si>
+    <t>Hafen</t>
+  </si>
+  <si>
+    <t>Linz</t>
+  </si>
+  <si>
+    <t>48.329222431517636, 14.286110320787243</t>
+  </si>
+  <si>
+    <t>Graz Holding</t>
+  </si>
+  <si>
+    <t>Brunnen</t>
+  </si>
+  <si>
+    <t>Eisenerz</t>
+  </si>
+  <si>
+    <t>47.54387168914886, 14.893798974015267</t>
+  </si>
+  <si>
+    <t>WVV</t>
+  </si>
+  <si>
+    <t>Hochbehälter Zellingen</t>
+  </si>
+  <si>
+    <t>Würzburg</t>
+  </si>
+  <si>
+    <t>49.817346113608544, 9.959340566631953</t>
+  </si>
+  <si>
+    <t>Stockholm Vatten och avfall</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>59.46998959413194, 18.08157822419211</t>
+  </si>
+  <si>
+    <t>Norsborg</t>
+  </si>
+  <si>
+    <t>Lovö</t>
+  </si>
+  <si>
+    <t>57.70853071593066, 11.972176149878901</t>
+  </si>
+  <si>
+    <t>Göteborg</t>
+  </si>
+  <si>
+    <t>Göteborgs Stad</t>
   </si>
 </sst>
 </file>
@@ -2808,8 +3057,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{97C8753E-B248-414E-8E09-FCA8EAD9E6A1}" name="Tabelle1" displayName="Tabelle1" ref="A2:AU99" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A2:AU99" xr:uid="{97C8753E-B248-414E-8E09-FCA8EAD9E6A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{97C8753E-B248-414E-8E09-FCA8EAD9E6A1}" name="Tabelle1" displayName="Tabelle1" ref="A2:AU122" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A2:AU122" xr:uid="{97C8753E-B248-414E-8E09-FCA8EAD9E6A1}"/>
   <tableColumns count="47">
     <tableColumn id="1" xr3:uid="{C558097B-EFFD-1E4D-9DAB-5449764A12C3}" name="Reference_ID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{2354C398-FE28-B547-9546-B8AAC399AADA}" name="Location" dataDxfId="5"/>
@@ -3191,13 +3440,13 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:BB99"/>
+  <dimension ref="A1:BB122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A100" sqref="A100"/>
+      <selection pane="bottomRight" activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13698,6 +13947,2446 @@
         <v>93</v>
       </c>
     </row>
+    <row r="100" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="H100">
+        <v>7.6</v>
+      </c>
+      <c r="I100">
+        <v>723</v>
+      </c>
+      <c r="J100">
+        <v>0.02</v>
+      </c>
+      <c r="K100" t="s">
+        <v>92</v>
+      </c>
+      <c r="L100">
+        <v>0.02</v>
+      </c>
+      <c r="M100" t="s">
+        <v>92</v>
+      </c>
+      <c r="N100">
+        <v>10.9</v>
+      </c>
+      <c r="O100" t="s">
+        <v>93</v>
+      </c>
+      <c r="P100">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>92</v>
+      </c>
+      <c r="R100">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S100" t="s">
+        <v>93</v>
+      </c>
+      <c r="T100">
+        <v>84</v>
+      </c>
+      <c r="U100" t="s">
+        <v>93</v>
+      </c>
+      <c r="V100">
+        <v>12</v>
+      </c>
+      <c r="W100" t="s">
+        <v>93</v>
+      </c>
+      <c r="X100">
+        <v>57</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z100">
+        <v>0.02</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD100">
+        <v>0.03</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF100">
+        <v>0.02</v>
+      </c>
+      <c r="AG100" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH100">
+        <v>0.06</v>
+      </c>
+      <c r="AI100" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL100">
+        <v>2E-3</v>
+      </c>
+      <c r="AM100" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN100">
+        <v>44</v>
+      </c>
+      <c r="AO100" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP100">
+        <v>80</v>
+      </c>
+      <c r="AQ100" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR100">
+        <v>0.02</v>
+      </c>
+      <c r="AS100" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H101">
+        <v>7.7</v>
+      </c>
+      <c r="I101">
+        <v>441</v>
+      </c>
+      <c r="J101">
+        <v>0.05</v>
+      </c>
+      <c r="K101" t="s">
+        <v>92</v>
+      </c>
+      <c r="L101">
+        <v>0.05</v>
+      </c>
+      <c r="M101" t="s">
+        <v>92</v>
+      </c>
+      <c r="N101">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O101" t="s">
+        <v>93</v>
+      </c>
+      <c r="R101">
+        <v>1</v>
+      </c>
+      <c r="S101" t="s">
+        <v>93</v>
+      </c>
+      <c r="T101">
+        <f>AVERAGE(63,65)</f>
+        <v>64</v>
+      </c>
+      <c r="U101" t="s">
+        <v>93</v>
+      </c>
+      <c r="V101">
+        <f>AVERAGE(18,19)</f>
+        <v>18.5</v>
+      </c>
+      <c r="W101" t="s">
+        <v>93</v>
+      </c>
+      <c r="X101">
+        <v>23.1</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z101">
+        <v>0.02</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD101">
+        <v>0.2</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF101">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG101" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH101">
+        <v>0.1</v>
+      </c>
+      <c r="AI101" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL101">
+        <v>2E-3</v>
+      </c>
+      <c r="AM101" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN101">
+        <v>5</v>
+      </c>
+      <c r="AO101" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP101">
+        <v>6.2</v>
+      </c>
+      <c r="AQ101" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR101">
+        <v>0.02</v>
+      </c>
+      <c r="AS101" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT101">
+        <v>0.5</v>
+      </c>
+      <c r="AU101" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="H102">
+        <v>7.9</v>
+      </c>
+      <c r="I102">
+        <v>527</v>
+      </c>
+      <c r="J102">
+        <v>0.01</v>
+      </c>
+      <c r="K102" t="s">
+        <v>92</v>
+      </c>
+      <c r="L102">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M102" t="s">
+        <v>92</v>
+      </c>
+      <c r="N102">
+        <v>2.5</v>
+      </c>
+      <c r="O102" t="s">
+        <v>93</v>
+      </c>
+      <c r="P102">
+        <v>0.01</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>92</v>
+      </c>
+      <c r="R102">
+        <v>2.7</v>
+      </c>
+      <c r="S102" t="s">
+        <v>93</v>
+      </c>
+      <c r="T102">
+        <v>71.7</v>
+      </c>
+      <c r="U102" t="s">
+        <v>93</v>
+      </c>
+      <c r="V102">
+        <v>43.3</v>
+      </c>
+      <c r="W102" t="s">
+        <v>93</v>
+      </c>
+      <c r="X102">
+        <v>97.5</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP102">
+        <v>1.4</v>
+      </c>
+      <c r="AQ102" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT102">
+        <v>0.24</v>
+      </c>
+      <c r="AU102" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D103" s="5">
+        <v>2022</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H103">
+        <v>7.9</v>
+      </c>
+      <c r="I103">
+        <v>489</v>
+      </c>
+      <c r="N103">
+        <v>11.2</v>
+      </c>
+      <c r="O103" t="s">
+        <v>93</v>
+      </c>
+      <c r="R103">
+        <v>3.4</v>
+      </c>
+      <c r="S103" t="s">
+        <v>93</v>
+      </c>
+      <c r="T103">
+        <v>66</v>
+      </c>
+      <c r="U103" t="s">
+        <v>93</v>
+      </c>
+      <c r="V103">
+        <v>11.9</v>
+      </c>
+      <c r="W103" t="s">
+        <v>93</v>
+      </c>
+      <c r="X103">
+        <v>85.6</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z103">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF103">
+        <v>1E-3</v>
+      </c>
+      <c r="AG103" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN103">
+        <v>14.9</v>
+      </c>
+      <c r="AO103" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP103">
+        <v>22</v>
+      </c>
+      <c r="AQ103" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR103">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS103" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D104" s="5">
+        <v>2022</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="H104">
+        <v>8.01</v>
+      </c>
+      <c r="I104">
+        <v>242</v>
+      </c>
+      <c r="J104">
+        <v>0.04</v>
+      </c>
+      <c r="K104" t="s">
+        <v>92</v>
+      </c>
+      <c r="L104">
+        <v>0.01</v>
+      </c>
+      <c r="M104" t="s">
+        <v>92</v>
+      </c>
+      <c r="N104">
+        <v>0.3</v>
+      </c>
+      <c r="O104" t="s">
+        <v>92</v>
+      </c>
+      <c r="R104">
+        <v>1.6</v>
+      </c>
+      <c r="S104" t="s">
+        <v>93</v>
+      </c>
+      <c r="T104">
+        <v>33.9</v>
+      </c>
+      <c r="U104" t="s">
+        <v>93</v>
+      </c>
+      <c r="V104">
+        <v>11.5</v>
+      </c>
+      <c r="W104" t="s">
+        <v>93</v>
+      </c>
+      <c r="X104">
+        <v>8</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z104">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF104">
+        <v>1E-3</v>
+      </c>
+      <c r="AG104" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN104">
+        <v>11.5</v>
+      </c>
+      <c r="AO104" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP104">
+        <v>18.5</v>
+      </c>
+      <c r="AQ104" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D105" s="5">
+        <v>2022</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="H105">
+        <v>7.49</v>
+      </c>
+      <c r="I105">
+        <v>813</v>
+      </c>
+      <c r="J105">
+        <v>0.05</v>
+      </c>
+      <c r="K105" t="s">
+        <v>92</v>
+      </c>
+      <c r="N105">
+        <v>0.9</v>
+      </c>
+      <c r="O105" t="s">
+        <v>93</v>
+      </c>
+      <c r="R105">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="S105" t="s">
+        <v>93</v>
+      </c>
+      <c r="T105">
+        <v>110</v>
+      </c>
+      <c r="U105" t="s">
+        <v>93</v>
+      </c>
+      <c r="V105">
+        <v>14.16</v>
+      </c>
+      <c r="W105" t="s">
+        <v>93</v>
+      </c>
+      <c r="X105">
+        <v>202</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z105">
+        <v>0.02</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF105">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG105" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH105">
+        <v>0.05</v>
+      </c>
+      <c r="AI105" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN105">
+        <v>29.2</v>
+      </c>
+      <c r="AO105" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP105">
+        <v>39.6</v>
+      </c>
+      <c r="AQ105" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR105">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS105" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT105">
+        <v>4.63</v>
+      </c>
+      <c r="AU105" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D106" s="5">
+        <v>2022</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="H106">
+        <v>7.64</v>
+      </c>
+      <c r="I106">
+        <v>599</v>
+      </c>
+      <c r="J106">
+        <v>0.1</v>
+      </c>
+      <c r="K106" t="s">
+        <v>92</v>
+      </c>
+      <c r="L106">
+        <v>0.01</v>
+      </c>
+      <c r="M106" t="s">
+        <v>92</v>
+      </c>
+      <c r="N106">
+        <v>2.4</v>
+      </c>
+      <c r="O106" t="s">
+        <v>93</v>
+      </c>
+      <c r="P106">
+        <v>0.1</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>92</v>
+      </c>
+      <c r="R106">
+        <v>2.7</v>
+      </c>
+      <c r="S106" t="s">
+        <v>93</v>
+      </c>
+      <c r="T106">
+        <v>91.3</v>
+      </c>
+      <c r="U106" t="s">
+        <v>93</v>
+      </c>
+      <c r="V106">
+        <v>9.5</v>
+      </c>
+      <c r="W106" t="s">
+        <v>93</v>
+      </c>
+      <c r="X106">
+        <v>133</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z106">
+        <v>0.02</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF106">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AG106" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL106">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AM106" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN106">
+        <v>16.5</v>
+      </c>
+      <c r="AO106" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP106">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="AQ106" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR106">
+        <v>0.02</v>
+      </c>
+      <c r="AS106" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT106">
+        <v>2.7</v>
+      </c>
+      <c r="AU106" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="107" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D107" s="5">
+        <v>2023</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="H107">
+        <v>7.56</v>
+      </c>
+      <c r="I107">
+        <v>434</v>
+      </c>
+      <c r="J107">
+        <v>0.1</v>
+      </c>
+      <c r="K107" t="s">
+        <v>92</v>
+      </c>
+      <c r="L107">
+        <v>0.05</v>
+      </c>
+      <c r="M107" t="s">
+        <v>92</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107" t="s">
+        <v>92</v>
+      </c>
+      <c r="R107">
+        <v>1.34</v>
+      </c>
+      <c r="S107" t="s">
+        <v>93</v>
+      </c>
+      <c r="T107">
+        <v>58.2</v>
+      </c>
+      <c r="U107" t="s">
+        <v>93</v>
+      </c>
+      <c r="V107">
+        <v>5.72</v>
+      </c>
+      <c r="W107" t="s">
+        <v>93</v>
+      </c>
+      <c r="X107">
+        <v>23</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z107">
+        <v>0.02</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD107">
+        <v>0.05</v>
+      </c>
+      <c r="AE107" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF107">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="AG107" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH107">
+        <v>0.1</v>
+      </c>
+      <c r="AI107" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL107">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AM107" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN107">
+        <v>24.3</v>
+      </c>
+      <c r="AO107" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP107">
+        <v>31</v>
+      </c>
+      <c r="AQ107" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR107">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="AS107" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT107">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AU107" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="H108">
+        <v>8.18</v>
+      </c>
+      <c r="I108">
+        <v>265</v>
+      </c>
+      <c r="J108">
+        <v>0.06</v>
+      </c>
+      <c r="K108" t="s">
+        <v>92</v>
+      </c>
+      <c r="L108">
+        <v>0.01</v>
+      </c>
+      <c r="M108" t="s">
+        <v>92</v>
+      </c>
+      <c r="N108">
+        <v>7.3</v>
+      </c>
+      <c r="O108" t="s">
+        <v>93</v>
+      </c>
+      <c r="R108">
+        <v>2.9</v>
+      </c>
+      <c r="S108" t="s">
+        <v>93</v>
+      </c>
+      <c r="T108">
+        <v>29.5</v>
+      </c>
+      <c r="U108" t="s">
+        <v>93</v>
+      </c>
+      <c r="V108">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W108" t="s">
+        <v>93</v>
+      </c>
+      <c r="X108">
+        <v>39</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z108">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD108">
+        <v>1E-3</v>
+      </c>
+      <c r="AE108" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF108">
+        <v>1E-3</v>
+      </c>
+      <c r="AG108" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH108">
+        <v>0.02</v>
+      </c>
+      <c r="AI108" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL108">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AM108" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN108">
+        <v>11.8</v>
+      </c>
+      <c r="AO108" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP108">
+        <v>22</v>
+      </c>
+      <c r="AQ108" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR108">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AS108" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT108">
+        <v>1</v>
+      </c>
+      <c r="AU108" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="109" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D109" s="5">
+        <v>2022</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="H109">
+        <v>7.99</v>
+      </c>
+      <c r="J109">
+        <v>0.05</v>
+      </c>
+      <c r="K109" t="s">
+        <v>92</v>
+      </c>
+      <c r="L109">
+        <v>0.02</v>
+      </c>
+      <c r="M109" t="s">
+        <v>92</v>
+      </c>
+      <c r="N109">
+        <v>16.5</v>
+      </c>
+      <c r="O109" t="s">
+        <v>93</v>
+      </c>
+      <c r="R109">
+        <v>3.9</v>
+      </c>
+      <c r="S109" t="s">
+        <v>93</v>
+      </c>
+      <c r="T109">
+        <v>46.3</v>
+      </c>
+      <c r="U109" t="s">
+        <v>93</v>
+      </c>
+      <c r="V109">
+        <v>22.8</v>
+      </c>
+      <c r="W109" t="s">
+        <v>93</v>
+      </c>
+      <c r="X109">
+        <v>14.1</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z109">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD109">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AE109" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF109">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG109" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH109">
+        <v>0.02</v>
+      </c>
+      <c r="AI109" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL109">
+        <v>2E-3</v>
+      </c>
+      <c r="AM109" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN109">
+        <v>12.2</v>
+      </c>
+      <c r="AO109" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP109">
+        <v>14.1</v>
+      </c>
+      <c r="AQ109" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR109">
+        <v>0.02</v>
+      </c>
+      <c r="AS109" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="H110">
+        <f>AVERAGE(8,9)</f>
+        <v>8.5</v>
+      </c>
+      <c r="I110">
+        <f>AVERAGE(180,320)</f>
+        <v>250</v>
+      </c>
+      <c r="J110">
+        <v>0.04</v>
+      </c>
+      <c r="K110" t="s">
+        <v>92</v>
+      </c>
+      <c r="L110">
+        <v>0.1</v>
+      </c>
+      <c r="M110" t="s">
+        <v>92</v>
+      </c>
+      <c r="N110">
+        <f>AVERAGE(2,10)</f>
+        <v>6</v>
+      </c>
+      <c r="O110" t="s">
+        <v>93</v>
+      </c>
+      <c r="R110">
+        <f>AVERAGE(1,3)</f>
+        <v>2</v>
+      </c>
+      <c r="S110" t="s">
+        <v>93</v>
+      </c>
+      <c r="T110">
+        <f>AVERAGE(10,50)</f>
+        <v>30</v>
+      </c>
+      <c r="U110" t="s">
+        <v>93</v>
+      </c>
+      <c r="V110">
+        <f>AVERAGE(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="W110" t="s">
+        <v>93</v>
+      </c>
+      <c r="X110">
+        <f>AVERAGE(20,35)</f>
+        <v>27.5</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z110">
+        <v>0.02</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD110">
+        <v>0.01</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF110">
+        <v>0.01</v>
+      </c>
+      <c r="AG110" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN110">
+        <f>AVERAGE(5,15)</f>
+        <v>10</v>
+      </c>
+      <c r="AO110" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP110">
+        <f>AVERAGE(10,25)</f>
+        <v>17.5</v>
+      </c>
+      <c r="AQ110" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR110">
+        <v>0.05</v>
+      </c>
+      <c r="AS110" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="111" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D111" s="5">
+        <v>2023</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="H111">
+        <v>7.93</v>
+      </c>
+      <c r="I111">
+        <v>261</v>
+      </c>
+      <c r="J111">
+        <v>0.01</v>
+      </c>
+      <c r="K111" t="s">
+        <v>92</v>
+      </c>
+      <c r="L111">
+        <v>0.01</v>
+      </c>
+      <c r="M111" t="s">
+        <v>92</v>
+      </c>
+      <c r="N111">
+        <v>0.5</v>
+      </c>
+      <c r="O111" t="s">
+        <v>92</v>
+      </c>
+      <c r="R111">
+        <v>0.8</v>
+      </c>
+      <c r="S111" t="s">
+        <v>93</v>
+      </c>
+      <c r="T111">
+        <v>42.1</v>
+      </c>
+      <c r="U111" t="s">
+        <v>93</v>
+      </c>
+      <c r="V111">
+        <v>3.8</v>
+      </c>
+      <c r="W111" t="s">
+        <v>93</v>
+      </c>
+      <c r="X111">
+        <v>13.6</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z111">
+        <v>0.01</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF111">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG111" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN111">
+        <v>5.3</v>
+      </c>
+      <c r="AO111" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP111">
+        <v>8.6</v>
+      </c>
+      <c r="AQ111" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR111">
+        <v>0.02</v>
+      </c>
+      <c r="AS111" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT111">
+        <v>0.6</v>
+      </c>
+      <c r="AU111" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="112" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D112" s="5">
+        <v>2023</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="H112">
+        <v>8.07</v>
+      </c>
+      <c r="I112">
+        <v>122</v>
+      </c>
+      <c r="J112">
+        <v>0.01</v>
+      </c>
+      <c r="K112" t="s">
+        <v>92</v>
+      </c>
+      <c r="L112">
+        <v>0.01</v>
+      </c>
+      <c r="M112" t="s">
+        <v>92</v>
+      </c>
+      <c r="N112">
+        <v>2.4</v>
+      </c>
+      <c r="O112" t="s">
+        <v>93</v>
+      </c>
+      <c r="R112">
+        <v>1.4</v>
+      </c>
+      <c r="S112" t="s">
+        <v>93</v>
+      </c>
+      <c r="T112">
+        <v>13.7</v>
+      </c>
+      <c r="U112" t="s">
+        <v>93</v>
+      </c>
+      <c r="V112">
+        <v>5.4</v>
+      </c>
+      <c r="W112" t="s">
+        <v>93</v>
+      </c>
+      <c r="X112">
+        <v>4.8</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z112">
+        <v>0.01</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF112">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG112" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN112">
+        <v>0.7</v>
+      </c>
+      <c r="AO112" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP112">
+        <v>1.9</v>
+      </c>
+      <c r="AQ112" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR112">
+        <v>0.02</v>
+      </c>
+      <c r="AS112" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT112">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AU112" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="113" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D113" s="5">
+        <v>2023</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="H113">
+        <v>7.79</v>
+      </c>
+      <c r="I113">
+        <v>413</v>
+      </c>
+      <c r="J113">
+        <v>0.01</v>
+      </c>
+      <c r="K113" t="s">
+        <v>92</v>
+      </c>
+      <c r="L113">
+        <v>0.01</v>
+      </c>
+      <c r="M113" t="s">
+        <v>92</v>
+      </c>
+      <c r="N113">
+        <v>2.5</v>
+      </c>
+      <c r="O113" t="s">
+        <v>93</v>
+      </c>
+      <c r="R113">
+        <v>0.8</v>
+      </c>
+      <c r="S113" t="s">
+        <v>93</v>
+      </c>
+      <c r="T113">
+        <v>61.8</v>
+      </c>
+      <c r="U113" t="s">
+        <v>93</v>
+      </c>
+      <c r="V113">
+        <v>12.3</v>
+      </c>
+      <c r="W113" t="s">
+        <v>93</v>
+      </c>
+      <c r="X113">
+        <v>20.5</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z113">
+        <v>0.01</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD113">
+        <v>2E-3</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF113">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AG113" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH113">
+        <v>0.03</v>
+      </c>
+      <c r="AI113" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL113">
+        <v>1E-3</v>
+      </c>
+      <c r="AM113" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN113">
+        <v>4.7</v>
+      </c>
+      <c r="AO113" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP113">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AQ113" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR113">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS113" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT113">
+        <v>0.69</v>
+      </c>
+      <c r="AU113" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="114" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D114" s="5">
+        <v>2023</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="H114">
+        <v>7.7</v>
+      </c>
+      <c r="I114">
+        <v>336</v>
+      </c>
+      <c r="J114">
+        <v>0.02</v>
+      </c>
+      <c r="K114" t="s">
+        <v>92</v>
+      </c>
+      <c r="L114">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M114" t="s">
+        <v>92</v>
+      </c>
+      <c r="N114">
+        <v>6.1</v>
+      </c>
+      <c r="O114" t="s">
+        <v>93</v>
+      </c>
+      <c r="P114">
+        <v>0.01</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>92</v>
+      </c>
+      <c r="R114">
+        <v>0.44</v>
+      </c>
+      <c r="S114" t="s">
+        <v>93</v>
+      </c>
+      <c r="T114">
+        <v>53.7</v>
+      </c>
+      <c r="U114" t="s">
+        <v>93</v>
+      </c>
+      <c r="V114">
+        <v>13.4</v>
+      </c>
+      <c r="W114" t="s">
+        <v>93</v>
+      </c>
+      <c r="X114">
+        <v>6.3</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z114">
+        <v>0.01</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF114">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG114" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN114">
+        <v>4.47</v>
+      </c>
+      <c r="AO114" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT114">
+        <v>0.6</v>
+      </c>
+      <c r="AU114" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="115" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D115" s="5">
+        <v>2023</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H115">
+        <v>7.4</v>
+      </c>
+      <c r="I115">
+        <v>640</v>
+      </c>
+      <c r="Z115" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB115" s="16">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AC115" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD115" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="AE115" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF115" s="16">
+        <v>2E-3</v>
+      </c>
+      <c r="AG115" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH115" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="AI115" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL115" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="AM115" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR115" s="16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS115" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="116" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D116" s="5">
+        <v>2023</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="H116">
+        <v>7.9</v>
+      </c>
+      <c r="I116">
+        <v>292</v>
+      </c>
+      <c r="J116">
+        <v>0.01</v>
+      </c>
+      <c r="K116" t="s">
+        <v>92</v>
+      </c>
+      <c r="L116">
+        <v>1E-3</v>
+      </c>
+      <c r="M116" t="s">
+        <v>92</v>
+      </c>
+      <c r="N116">
+        <v>3.7</v>
+      </c>
+      <c r="O116" t="s">
+        <v>93</v>
+      </c>
+      <c r="P116">
+        <v>0.01</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>92</v>
+      </c>
+      <c r="R116">
+        <v>0.3</v>
+      </c>
+      <c r="S116" t="s">
+        <v>93</v>
+      </c>
+      <c r="T116">
+        <v>40.4</v>
+      </c>
+      <c r="U116" t="s">
+        <v>93</v>
+      </c>
+      <c r="V116">
+        <v>13</v>
+      </c>
+      <c r="W116" t="s">
+        <v>93</v>
+      </c>
+      <c r="X116">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z116" s="16">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB116" s="16">
+        <v>1.0300000000000001E-3</v>
+      </c>
+      <c r="AC116" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD116" s="16">
+        <v>4.4000000000000002E-4</v>
+      </c>
+      <c r="AE116" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF116" s="16">
+        <v>3.1E-4</v>
+      </c>
+      <c r="AG116" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH116" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="AI116" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL116" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="AM116" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN116">
+        <v>0.6</v>
+      </c>
+      <c r="AO116" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP116">
+        <v>0.7</v>
+      </c>
+      <c r="AQ116" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR116" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="AS116" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="117" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D117" s="5">
+        <v>2023</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="H117">
+        <v>7.1</v>
+      </c>
+      <c r="I117">
+        <v>717</v>
+      </c>
+      <c r="J117">
+        <v>0.03</v>
+      </c>
+      <c r="K117" t="s">
+        <v>92</v>
+      </c>
+      <c r="L117">
+        <v>0.01</v>
+      </c>
+      <c r="M117" t="s">
+        <v>92</v>
+      </c>
+      <c r="N117">
+        <v>23.3</v>
+      </c>
+      <c r="O117" t="s">
+        <v>93</v>
+      </c>
+      <c r="R117">
+        <v>4.3</v>
+      </c>
+      <c r="S117" t="s">
+        <v>93</v>
+      </c>
+      <c r="T117">
+        <v>100.3</v>
+      </c>
+      <c r="U117" t="s">
+        <v>93</v>
+      </c>
+      <c r="V117">
+        <v>24.9</v>
+      </c>
+      <c r="W117" t="s">
+        <v>93</v>
+      </c>
+      <c r="X117">
+        <v>29.9</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z117">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF117">
+        <v>2E-3</v>
+      </c>
+      <c r="AG117" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN117">
+        <v>28.8</v>
+      </c>
+      <c r="AO117" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP117">
+        <v>52.2</v>
+      </c>
+      <c r="AQ117" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="118" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D118" s="5">
+        <v>2022</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="H118">
+        <v>7.5</v>
+      </c>
+      <c r="I118">
+        <v>582</v>
+      </c>
+      <c r="J118">
+        <v>0.05</v>
+      </c>
+      <c r="K118" t="s">
+        <v>92</v>
+      </c>
+      <c r="L118">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M118" t="s">
+        <v>92</v>
+      </c>
+      <c r="N118">
+        <v>3.4</v>
+      </c>
+      <c r="O118" t="s">
+        <v>93</v>
+      </c>
+      <c r="R118">
+        <v>2</v>
+      </c>
+      <c r="S118" t="s">
+        <v>92</v>
+      </c>
+      <c r="T118">
+        <v>87.4</v>
+      </c>
+      <c r="U118" t="s">
+        <v>93</v>
+      </c>
+      <c r="V118">
+        <v>20.9</v>
+      </c>
+      <c r="W118" t="s">
+        <v>93</v>
+      </c>
+      <c r="X118">
+        <v>143</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z118">
+        <v>0.03</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH118">
+        <v>0.01</v>
+      </c>
+      <c r="AI118" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN118">
+        <v>2</v>
+      </c>
+      <c r="AO118" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP118">
+        <v>2</v>
+      </c>
+      <c r="AQ118" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR118">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AS118" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT118">
+        <v>0.4</v>
+      </c>
+      <c r="AU118" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="119" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D119" s="5">
+        <v>2023</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="I119">
+        <v>830</v>
+      </c>
+      <c r="J119">
+        <v>0.03</v>
+      </c>
+      <c r="K119" t="s">
+        <v>92</v>
+      </c>
+      <c r="L119">
+        <v>0.01</v>
+      </c>
+      <c r="M119" t="s">
+        <v>92</v>
+      </c>
+      <c r="N119">
+        <v>36.4</v>
+      </c>
+      <c r="O119" t="s">
+        <v>93</v>
+      </c>
+      <c r="P119">
+        <v>0.1</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>92</v>
+      </c>
+      <c r="R119">
+        <v>1</v>
+      </c>
+      <c r="S119" t="s">
+        <v>93</v>
+      </c>
+      <c r="T119">
+        <v>137</v>
+      </c>
+      <c r="U119" t="s">
+        <v>93</v>
+      </c>
+      <c r="V119">
+        <v>23.7</v>
+      </c>
+      <c r="W119" t="s">
+        <v>93</v>
+      </c>
+      <c r="X119">
+        <v>68.8</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z119">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD119">
+        <v>1E-3</v>
+      </c>
+      <c r="AE119" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF119">
+        <v>1E-3</v>
+      </c>
+      <c r="AG119" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH119">
+        <v>0.01</v>
+      </c>
+      <c r="AI119" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL119">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AM119" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN119">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AO119" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP119">
+        <v>27.3</v>
+      </c>
+      <c r="AQ119" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR119">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AS119" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT119">
+        <v>0.5</v>
+      </c>
+      <c r="AU119" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="120" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D120" s="5">
+        <v>2023</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="H120">
+        <v>8.4</v>
+      </c>
+      <c r="J120">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K120" t="s">
+        <v>93</v>
+      </c>
+      <c r="L120">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M120" t="s">
+        <v>92</v>
+      </c>
+      <c r="R120">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S120" t="s">
+        <v>93</v>
+      </c>
+      <c r="T120">
+        <v>23</v>
+      </c>
+      <c r="U120" t="s">
+        <v>93</v>
+      </c>
+      <c r="V120">
+        <v>4.7</v>
+      </c>
+      <c r="W120" t="s">
+        <v>93</v>
+      </c>
+      <c r="X120">
+        <v>46</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z120">
+        <v>0.01</v>
+      </c>
+      <c r="AA120" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD120">
+        <v>1E-3</v>
+      </c>
+      <c r="AE120" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF120">
+        <v>1E-3</v>
+      </c>
+      <c r="AG120" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN120">
+        <v>12</v>
+      </c>
+      <c r="AO120" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP120">
+        <v>14</v>
+      </c>
+      <c r="AQ120" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR120">
+        <v>0.02</v>
+      </c>
+      <c r="AS120" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT120">
+        <v>3.7</v>
+      </c>
+      <c r="AU120" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="121" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D121" s="5">
+        <v>2023</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="H121">
+        <v>8.4</v>
+      </c>
+      <c r="J121">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K121" t="s">
+        <v>93</v>
+      </c>
+      <c r="L121">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M121" t="s">
+        <v>92</v>
+      </c>
+      <c r="R121">
+        <v>2.8</v>
+      </c>
+      <c r="S121" t="s">
+        <v>93</v>
+      </c>
+      <c r="T121">
+        <v>35</v>
+      </c>
+      <c r="U121" t="s">
+        <v>93</v>
+      </c>
+      <c r="V121">
+        <v>5.4</v>
+      </c>
+      <c r="W121" t="s">
+        <v>93</v>
+      </c>
+      <c r="X121">
+        <v>48</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z121">
+        <v>0.01</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD121">
+        <v>1E-3</v>
+      </c>
+      <c r="AE121" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF121">
+        <v>1E-3</v>
+      </c>
+      <c r="AG121" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN121">
+        <v>15</v>
+      </c>
+      <c r="AO121" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP121">
+        <v>19</v>
+      </c>
+      <c r="AQ121" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR121">
+        <v>0.02</v>
+      </c>
+      <c r="AS121" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT121">
+        <v>4.2</v>
+      </c>
+      <c r="AU121" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="122" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D122" s="5">
+        <v>2023</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="H122">
+        <v>7.8</v>
+      </c>
+      <c r="I122">
+        <v>19.5</v>
+      </c>
+      <c r="J122" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="K122" t="s">
+        <v>92</v>
+      </c>
+      <c r="L122" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="M122" t="s">
+        <v>92</v>
+      </c>
+      <c r="N122" s="16">
+        <v>0.41</v>
+      </c>
+      <c r="O122" t="s">
+        <v>93</v>
+      </c>
+      <c r="P122">
+        <f>0.005/0.33</f>
+        <v>1.5151515151515152E-2</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>92</v>
+      </c>
+      <c r="R122">
+        <v>1.2</v>
+      </c>
+      <c r="S122" t="s">
+        <v>93</v>
+      </c>
+      <c r="T122">
+        <v>18</v>
+      </c>
+      <c r="U122" t="s">
+        <v>93</v>
+      </c>
+      <c r="V122">
+        <v>1.5</v>
+      </c>
+      <c r="W122" t="s">
+        <v>93</v>
+      </c>
+      <c r="X122">
+        <v>26</v>
+      </c>
+      <c r="Y122" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z122" s="16">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="AA122" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD122">
+        <v>0.3</v>
+      </c>
+      <c r="AE122" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF122">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AG122" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH122" s="16">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AI122" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN122">
+        <v>19</v>
+      </c>
+      <c r="AO122" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP122">
+        <v>9</v>
+      </c>
+      <c r="AQ122" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR122">
+        <v>0.02</v>
+      </c>
+      <c r="AS122" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT122">
+        <v>2</v>
+      </c>
+      <c r="AU122" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="J1:X1"/>
